--- a/Python Assignment 2/Output/invoices.xlsx
+++ b/Python Assignment 2/Output/invoices.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>692.8200000000001</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1175</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>517.74</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14273</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>6313.42</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10063</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>4453.04</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8421</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>3724.94</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1195</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>525.86</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2198</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>972.54</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6169</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>2727.75</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18929</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>8375.530000000001</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1430</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>629.64</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5170</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>2286.51</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22304</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>9867.379999999999</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20589</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>9107.549999999999</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2125</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
         <v>936.8099999999999</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16394</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>7253.4</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21674</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>9590.92</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2141</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
         <v>943.48</v>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>344.31</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>246.89</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22334</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>9880.190000000001</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1298</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>571.71</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8401</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>3716.81</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5234</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
         <v>2314.89</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10296</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>4554.78</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1231</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>541.72</v>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2229</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>983.2</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>658</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>289.51</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19185</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
         <v>8487.360000000001</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8619</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>3810.38</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>309</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>136.86</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1475</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
         <v>651.11</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2047</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
         <v>904.51</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>595</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>260.66</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1254</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>554.15</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1863</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
         <v>823.76</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18571</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
         <v>8215.030000000001</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>168.76</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2197</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>972.34</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20702</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>9158</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10220</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>4518.89</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1541</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>678.87</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13553</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
         <v>5993.55</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3036</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
         <v>1340.27</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1234</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
         <v>542.64</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1302</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>574.27</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1154</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
         <v>508.97</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1119</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
         <v>492.87</v>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
         <v>453.76</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3287</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
         <v>1453.01</v>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20999</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>9291.42</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10364</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
         <v>4584.01</v>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13941</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>6168.23</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15016</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>6643.1</v>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20435</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>9039.540000000001</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>779</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>344.05</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20203</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
         <v>8936.299999999999</v>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>18390</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
         <v>8136.75</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2316</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>1022.33</v>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9951</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
         <v>4401.43</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9681</v>
+        <v>8</v>
       </c>
       <c r="C61" t="n">
         <v>4280.67</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11607</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>5136.02</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13732</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
         <v>6073.45</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1353</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
         <v>598.3200000000001</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
         <v>121.15</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20866</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
         <v>9229.059999999999</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11377</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
         <v>5030.13</v>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1687</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
         <v>744.79</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1562</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>691.35</v>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
         <v>142.18</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14387</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>6362.62</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1334</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
         <v>586.6900000000001</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2004</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
         <v>883.08</v>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1067</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
         <v>468.55</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6218</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
         <v>2749.24</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5142</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
         <v>2272.37</v>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9892</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
         <v>4375.79</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12633</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
         <v>5589.83</v>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20273</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
         <v>8969.209999999999</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>769</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
         <v>339.65</v>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>670</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>293.08</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1293</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
         <v>570</v>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7641</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>3380.99</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13924</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
         <v>6159.41</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>78.44</v>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8460</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
         <v>3739.49</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>466</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>204.11</v>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1393</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>615.6</v>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16023</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
         <v>7087.11</v>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>169.62</v>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1454</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
         <v>641.77</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1112</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
         <v>491.91</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>16938</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
         <v>7492.45</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>16410</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>7261.21</v>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4514</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>1995.14</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7910</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
         <v>3496.11</v>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>21991</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
         <v>9729.77</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5219</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>2308.45</v>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1609</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
         <v>710.4299999999999</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1460</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
         <v>643.66</v>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>17465</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
         <v>7727.17</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1825</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
         <v>803.9</v>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>15312</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
         <v>6772.2</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>20571</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
         <v>9099.52</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>412</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
         <v>180.85</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>17149</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
         <v>7584.76</v>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
         <v>164.34</v>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>15197</v>
+        <v>10</v>
       </c>
       <c r="C108" t="n">
         <v>6720.86</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1702</v>
+        <v>5</v>
       </c>
       <c r="C109" t="n">
         <v>751.83</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1704</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
         <v>752.17</v>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1325</v>
+        <v>10</v>
       </c>
       <c r="C111" t="n">
         <v>582.39</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1316</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
         <v>580.23</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>850</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
         <v>373.24</v>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>21788</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
         <v>9640.540000000001</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12234</v>
+        <v>10</v>
       </c>
       <c r="C115" t="n">
         <v>5409.67</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>22483</v>
+        <v>10</v>
       </c>
       <c r="C116" t="n">
         <v>9944.549999999999</v>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>13162</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
         <v>5820.33</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21631</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>9571.42</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>8891</v>
+        <v>5</v>
       </c>
       <c r="C119" t="n">
         <v>3932.42</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20049</v>
+        <v>5</v>
       </c>
       <c r="C120" t="n">
         <v>8869.700000000001</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6283</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
         <v>2777.85</v>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11448</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>5065.93</v>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6044</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
         <v>2673.7</v>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2438</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
         <v>1078.39</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1806</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>799.1799999999999</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1476</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
         <v>652.6799999999999</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1942</v>
+        <v>10</v>
       </c>
       <c r="C127" t="n">
         <v>855.74</v>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1380</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
         <v>607.97</v>
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16065</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
         <v>7107.77</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5719</v>
+        <v>10</v>
       </c>
       <c r="C130" t="n">
         <v>2526.64</v>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1616</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
         <v>714.51</v>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>13660</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
         <v>6043.69</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2207</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
         <v>973.5599999999999</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>405</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
         <v>176</v>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>12948</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
         <v>5726.32</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2116</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
         <v>933.5700000000001</v>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3903</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
         <v>1725.96</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1376</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
         <v>608.1799999999999</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>14347</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
         <v>6347.08</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7609</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
         <v>3366.76</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1622</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
         <v>715.1</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>18910</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
         <v>8364.530000000001</v>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
         <v>19.46</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C144" t="n">
         <v>89.39</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>501</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
         <v>218.7</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1541</v>
+        <v>9</v>
       </c>
       <c r="C146" t="n">
         <v>678.3</v>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>9371</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>4146.88</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1720</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
         <v>760.9</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2393</v>
+        <v>7</v>
       </c>
       <c r="C149" t="n">
         <v>1056.24</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="C150" t="n">
         <v>69.87</v>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>14606</v>
+        <v>9</v>
       </c>
       <c r="C151" t="n">
         <v>6459.89</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2187</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
         <v>966.29</v>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>14025</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>6206.07</v>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>15850</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
         <v>7013.42</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>21181</v>
+        <v>6</v>
       </c>
       <c r="C155" t="n">
         <v>9369.91</v>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6071</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>2686.28</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>16976</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
         <v>7511.1</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12851</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
         <v>5684.18</v>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2853</v>
+        <v>9</v>
       </c>
       <c r="C159" t="n">
         <v>1259.16</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8353</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
         <v>3693.28</v>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
         <v>190.21</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>16101</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
         <v>7122.57</v>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>669</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
         <v>294.74</v>
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6542</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
         <v>2893.04</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15628</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
         <v>6913.49</v>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1503</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
         <v>662.7</v>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1429</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
         <v>630.1900000000001</v>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1638</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
         <v>722.17</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
         <v>62.08</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1482</v>
+        <v>2</v>
       </c>
       <c r="C170" t="n">
         <v>655.15</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>16852</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
         <v>7454.31</v>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>10743</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
         <v>4751.67</v>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>13504</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
         <v>5974.92</v>
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>15635</v>
+        <v>10</v>
       </c>
       <c r="C174" t="n">
         <v>6914.27</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12232</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>5412.93</v>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>872</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
         <v>384.41</v>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1079</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
         <v>476.96</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1145</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>507.05</v>
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>20883</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
         <v>9238.700000000001</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>13760</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
         <v>6085.32</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>13861</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
         <v>6130.18</v>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>15407</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
         <v>6815.92</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>20633</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
         <v>9129.82</v>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>14073</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
         <v>6224.03</v>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1706</v>
+        <v>7</v>
       </c>
       <c r="C185" t="n">
         <v>752.35</v>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>192.65</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>21486</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
         <v>9506.16</v>
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>825</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
         <v>364.83</v>
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="C189" t="n">
         <v>154.96</v>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>15956</v>
+        <v>5</v>
       </c>
       <c r="C190" t="n">
         <v>7058.57</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>22582</v>
+        <v>8</v>
       </c>
       <c r="C191" t="n">
         <v>9989.17</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2373</v>
+        <v>9</v>
       </c>
       <c r="C192" t="n">
         <v>1046.67</v>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1911</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
         <v>844.77</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1270</v>
+        <v>9</v>
       </c>
       <c r="C194" t="n">
         <v>558.75</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>403</v>
+        <v>6</v>
       </c>
       <c r="C195" t="n">
         <v>176.63</v>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2041</v>
+        <v>10</v>
       </c>
       <c r="C196" t="n">
         <v>899.65</v>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>462</v>
+        <v>2</v>
       </c>
       <c r="C197" t="n">
         <v>204.1</v>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="C198" t="n">
         <v>188.54</v>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>880</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>389.73</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>14079</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
         <v>6229.65</v>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>9377</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>4149.49</v>

--- a/Python Assignment 2/Output/invoices.xlsx
+++ b/Python Assignment 2/Output/invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Programs\Python Assignment 2\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F153A9-F2FD-459E-8F98-6124ECD7544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E29F8-5670-4FF2-95AD-8EE114C41B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,16 +1000,16 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>90.07</v>
       </c>
       <c r="E2">
-        <v>692.82</v>
+        <v>782.89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>67.31</v>
       </c>
       <c r="E3">
-        <v>517.74</v>
+        <v>585.04999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>820.74</v>
       </c>
       <c r="E4">
-        <v>6313.42</v>
+        <v>7134.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>578.9</v>
       </c>
       <c r="E5">
-        <v>4453.04</v>
+        <v>5031.9399999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>484.24</v>
       </c>
       <c r="E6">
-        <v>3724.94</v>
+        <v>4209.18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
         <v>68.36</v>
       </c>
       <c r="E7">
-        <v>525.86</v>
+        <v>594.22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>126.43</v>
       </c>
       <c r="E8">
-        <v>972.54</v>
+        <v>1098.97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>354.61</v>
       </c>
       <c r="E9">
-        <v>2727.75</v>
+        <v>3082.36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>1088.82</v>
       </c>
       <c r="E10">
-        <v>8375.5300000000007</v>
+        <v>9464.35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>81.849999999999994</v>
       </c>
       <c r="E11">
-        <v>629.64</v>
+        <v>711.49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>297.25</v>
       </c>
       <c r="E12">
-        <v>2286.5100000000002</v>
+        <v>2583.7600000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>1282.76</v>
       </c>
       <c r="E13">
-        <v>9867.3799999999992</v>
+        <v>11150.14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>1183.98</v>
       </c>
       <c r="E14">
-        <v>9107.5499999999993</v>
+        <v>10291.530000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>121.79</v>
       </c>
       <c r="E15">
-        <v>936.81</v>
+        <v>1058.5999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>942.94</v>
       </c>
       <c r="E16">
-        <v>7253.4</v>
+        <v>8196.34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>1246.82</v>
       </c>
       <c r="E17">
-        <v>9590.92</v>
+        <v>10837.74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>122.65</v>
       </c>
       <c r="E18">
-        <v>943.48</v>
+        <v>1066.1300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>44.76</v>
       </c>
       <c r="E19">
-        <v>344.31</v>
+        <v>389.07</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>32.1</v>
       </c>
       <c r="E20">
-        <v>246.89</v>
+        <v>278.99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>1284.42</v>
       </c>
       <c r="E21">
-        <v>9880.19</v>
+        <v>11164.61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>74.319999999999993</v>
       </c>
       <c r="E22">
-        <v>571.71</v>
+        <v>646.03</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,7 +1400,7 @@
         <v>483.19</v>
       </c>
       <c r="E23">
-        <v>3716.81</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>300.94</v>
       </c>
       <c r="E24">
-        <v>2314.89</v>
+        <v>2615.83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>592.12</v>
       </c>
       <c r="E25">
-        <v>4554.78</v>
+        <v>5146.8999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
         <v>70.42</v>
       </c>
       <c r="E26">
-        <v>541.72</v>
+        <v>612.14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>127.82</v>
       </c>
       <c r="E27">
-        <v>983.2</v>
+        <v>1111.02</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>37.64</v>
       </c>
       <c r="E28">
-        <v>289.51</v>
+        <v>327.14999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>1103.3599999999999</v>
       </c>
       <c r="E29">
-        <v>8487.36</v>
+        <v>9590.7199999999993</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
         <v>495.35</v>
       </c>
       <c r="E30">
-        <v>3810.38</v>
+        <v>4305.7299999999996</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>17.79</v>
       </c>
       <c r="E31">
-        <v>136.86000000000001</v>
+        <v>154.65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>84.64</v>
       </c>
       <c r="E32">
-        <v>651.11</v>
+        <v>735.75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>117.59</v>
       </c>
       <c r="E33">
-        <v>904.51</v>
+        <v>1022.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>33.89</v>
       </c>
       <c r="E34">
-        <v>260.66000000000003</v>
+        <v>294.55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>72.040000000000006</v>
       </c>
       <c r="E35">
-        <v>554.15</v>
+        <v>626.19000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>107.09</v>
       </c>
       <c r="E36">
-        <v>823.76</v>
+        <v>930.85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>1067.95</v>
       </c>
       <c r="E37">
-        <v>8215.0300000000007</v>
+        <v>9282.98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>21.94</v>
       </c>
       <c r="E38">
-        <v>168.76</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
         <v>126.4</v>
       </c>
       <c r="E39">
-        <v>972.34</v>
+        <v>1098.74</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
         <v>1190.54</v>
       </c>
       <c r="E40">
-        <v>9158</v>
+        <v>10348.540000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>587.46</v>
       </c>
       <c r="E41">
-        <v>4518.8900000000003</v>
+        <v>5106.3500000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>88.25</v>
       </c>
       <c r="E42">
-        <v>678.87</v>
+        <v>767.12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
         <v>779.16</v>
       </c>
       <c r="E43">
-        <v>5993.55</v>
+        <v>6772.71</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>174.24</v>
       </c>
       <c r="E44">
-        <v>1340.27</v>
+        <v>1514.51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>70.540000000000006</v>
       </c>
       <c r="E45">
-        <v>542.64</v>
+        <v>613.17999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>74.66</v>
       </c>
       <c r="E46">
-        <v>574.27</v>
+        <v>648.92999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
         <v>66.17</v>
       </c>
       <c r="E47">
-        <v>508.97</v>
+        <v>575.14</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>64.069999999999993</v>
       </c>
       <c r="E48">
-        <v>492.87</v>
+        <v>556.94000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>58.99</v>
       </c>
       <c r="E49">
-        <v>453.76</v>
+        <v>512.75</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
         <v>188.89</v>
       </c>
       <c r="E50">
-        <v>1453.01</v>
+        <v>1641.9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>1207.8800000000001</v>
       </c>
       <c r="E51">
-        <v>9291.42</v>
+        <v>10499.3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>595.91999999999996</v>
       </c>
       <c r="E52">
-        <v>4584.01</v>
+        <v>5179.93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>801.87</v>
       </c>
       <c r="E53">
-        <v>6168.23</v>
+        <v>6970.1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>863.6</v>
       </c>
       <c r="E54">
-        <v>6643.1</v>
+        <v>7506.7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,7 +1944,7 @@
         <v>1175.1400000000001</v>
       </c>
       <c r="E55">
-        <v>9039.5400000000009</v>
+        <v>10214.68</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,7 +1961,7 @@
         <v>44.73</v>
       </c>
       <c r="E56">
-        <v>344.05</v>
+        <v>388.78</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
         <v>1161.72</v>
       </c>
       <c r="E57">
-        <v>8936.2999999999993</v>
+        <v>10098.02</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>1057.78</v>
       </c>
       <c r="E58">
-        <v>8136.75</v>
+        <v>9194.5300000000007</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2012,7 +2012,7 @@
         <v>132.9</v>
       </c>
       <c r="E59">
-        <v>1022.33</v>
+        <v>1155.23</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>572.19000000000005</v>
       </c>
       <c r="E60">
-        <v>4401.43</v>
+        <v>4973.62</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>556.49</v>
       </c>
       <c r="E61">
-        <v>4280.67</v>
+        <v>4837.16</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>667.68</v>
       </c>
       <c r="E62">
-        <v>5136.0200000000004</v>
+        <v>5803.7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,7 +2080,7 @@
         <v>789.55</v>
       </c>
       <c r="E63">
-        <v>6073.45</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2097,7 +2097,7 @@
         <v>77.78</v>
       </c>
       <c r="E64">
-        <v>598.32000000000005</v>
+        <v>676.1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,7 +2114,7 @@
         <v>15.75</v>
       </c>
       <c r="E65">
-        <v>121.15</v>
+        <v>136.9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>1199.78</v>
       </c>
       <c r="E66">
-        <v>9229.06</v>
+        <v>10428.84</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>653.91999999999996</v>
       </c>
       <c r="E67">
-        <v>5030.13</v>
+        <v>5684.05</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>96.82</v>
       </c>
       <c r="E68">
-        <v>744.79</v>
+        <v>841.61</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>89.88</v>
       </c>
       <c r="E69">
-        <v>691.35</v>
+        <v>781.23</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>18.48</v>
       </c>
       <c r="E70">
-        <v>142.18</v>
+        <v>160.66</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
         <v>827.14</v>
       </c>
       <c r="E71">
-        <v>6362.62</v>
+        <v>7189.76</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,7 +2233,7 @@
         <v>76.27</v>
       </c>
       <c r="E72">
-        <v>586.69000000000005</v>
+        <v>662.96</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
         <v>114.8</v>
       </c>
       <c r="E73">
-        <v>883.08</v>
+        <v>997.88</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,7 +2267,7 @@
         <v>60.91</v>
       </c>
       <c r="E74">
-        <v>468.55</v>
+        <v>529.46</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>357.4</v>
       </c>
       <c r="E75">
-        <v>2749.24</v>
+        <v>3106.64</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>295.41000000000003</v>
       </c>
       <c r="E76">
-        <v>2272.37</v>
+        <v>2567.7800000000002</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
         <v>568.85</v>
       </c>
       <c r="E77">
-        <v>4375.79</v>
+        <v>4944.6400000000003</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
         <v>726.68</v>
       </c>
       <c r="E78">
-        <v>5589.83</v>
+        <v>6316.51</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
         <v>1166</v>
       </c>
       <c r="E79">
-        <v>8969.2099999999991</v>
+        <v>10135.209999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
         <v>44.15</v>
       </c>
       <c r="E80">
-        <v>339.65</v>
+        <v>383.8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
         <v>38.1</v>
       </c>
       <c r="E81">
-        <v>293.08</v>
+        <v>331.18</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2403,7 +2403,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="E82">
-        <v>570</v>
+        <v>644.1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>439.53</v>
       </c>
       <c r="E83">
-        <v>3380.99</v>
+        <v>3820.52</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>800.72</v>
       </c>
       <c r="E84">
-        <v>6159.41</v>
+        <v>6960.13</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E85">
-        <v>78.44</v>
+        <v>88.64</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>486.13</v>
       </c>
       <c r="E86">
-        <v>3739.49</v>
+        <v>4225.62</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2488,7 +2488,7 @@
         <v>26.53</v>
       </c>
       <c r="E87">
-        <v>204.11</v>
+        <v>230.64</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
         <v>80.03</v>
       </c>
       <c r="E88">
-        <v>615.6</v>
+        <v>695.63</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
         <v>921.32</v>
       </c>
       <c r="E89">
-        <v>7087.11</v>
+        <v>8008.43</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
         <v>22.05</v>
       </c>
       <c r="E90">
-        <v>169.62</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2556,7 +2556,7 @@
         <v>83.43</v>
       </c>
       <c r="E91">
-        <v>641.77</v>
+        <v>725.2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>63.95</v>
       </c>
       <c r="E92">
-        <v>491.91</v>
+        <v>555.86</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2590,7 +2590,7 @@
         <v>974.02</v>
       </c>
       <c r="E93">
-        <v>7492.45</v>
+        <v>8466.4699999999993</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2607,7 +2607,7 @@
         <v>943.96</v>
       </c>
       <c r="E94">
-        <v>7261.21</v>
+        <v>8205.17</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>259.37</v>
       </c>
       <c r="E95">
-        <v>1995.14</v>
+        <v>2254.5100000000002</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,7 +2641,7 @@
         <v>454.49</v>
       </c>
       <c r="E96">
-        <v>3496.11</v>
+        <v>3950.6</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
         <v>1264.8699999999999</v>
       </c>
       <c r="E97">
-        <v>9729.77</v>
+        <v>10994.64</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
         <v>300.10000000000002</v>
       </c>
       <c r="E98">
-        <v>2308.4499999999998</v>
+        <v>2608.5500000000002</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
         <v>92.36</v>
       </c>
       <c r="E99">
-        <v>710.43</v>
+        <v>802.79</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
         <v>83.68</v>
       </c>
       <c r="E100">
-        <v>643.66</v>
+        <v>727.34</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2726,7 +2726,7 @@
         <v>1004.53</v>
       </c>
       <c r="E101">
-        <v>7727.17</v>
+        <v>8731.7000000000007</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>104.51</v>
       </c>
       <c r="E102">
-        <v>803.9</v>
+        <v>908.41</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
         <v>880.39</v>
       </c>
       <c r="E103">
-        <v>6772.2</v>
+        <v>7652.59</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>1182.94</v>
       </c>
       <c r="E104">
-        <v>9099.52</v>
+        <v>10282.459999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
         <v>23.51</v>
       </c>
       <c r="E105">
-        <v>180.85</v>
+        <v>204.36</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2811,7 +2811,7 @@
         <v>986.02</v>
       </c>
       <c r="E106">
-        <v>7584.76</v>
+        <v>8570.7800000000007</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
         <v>21.36</v>
       </c>
       <c r="E107">
-        <v>164.34</v>
+        <v>185.7</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>873.71</v>
       </c>
       <c r="E108">
-        <v>6720.86</v>
+        <v>7594.57</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,7 +2862,7 @@
         <v>97.74</v>
       </c>
       <c r="E109">
-        <v>751.83</v>
+        <v>849.57</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2879,7 +2879,7 @@
         <v>97.78</v>
       </c>
       <c r="E110">
-        <v>752.17</v>
+        <v>849.95</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2896,7 +2896,7 @@
         <v>75.709999999999994</v>
       </c>
       <c r="E111">
-        <v>582.39</v>
+        <v>658.1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
         <v>75.430000000000007</v>
       </c>
       <c r="E112">
-        <v>580.23</v>
+        <v>655.66</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2930,7 +2930,7 @@
         <v>48.52</v>
       </c>
       <c r="E113">
-        <v>373.24</v>
+        <v>421.76</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2947,7 +2947,7 @@
         <v>1253.27</v>
       </c>
       <c r="E114">
-        <v>9640.5400000000009</v>
+        <v>10893.81</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
         <v>703.26</v>
       </c>
       <c r="E115">
-        <v>5409.67</v>
+        <v>6112.93</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>1292.79</v>
       </c>
       <c r="E116">
-        <v>9944.5499999999993</v>
+        <v>11237.34</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2998,7 +2998,7 @@
         <v>756.64</v>
       </c>
       <c r="E117">
-        <v>5820.33</v>
+        <v>6576.97</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3015,7 +3015,7 @@
         <v>1244.28</v>
       </c>
       <c r="E118">
-        <v>9571.42</v>
+        <v>10815.7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
         <v>511.21</v>
       </c>
       <c r="E119">
-        <v>3932.42</v>
+        <v>4443.63</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3049,7 +3049,7 @@
         <v>1153.06</v>
       </c>
       <c r="E120">
-        <v>8869.7000000000007</v>
+        <v>10022.76</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3066,7 +3066,7 @@
         <v>361.12</v>
       </c>
       <c r="E121">
-        <v>2777.85</v>
+        <v>3138.97</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3083,7 +3083,7 @@
         <v>658.57</v>
       </c>
       <c r="E122">
-        <v>5065.93</v>
+        <v>5724.5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
         <v>347.58</v>
       </c>
       <c r="E123">
-        <v>2673.7</v>
+        <v>3021.28</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>140.19</v>
       </c>
       <c r="E124">
-        <v>1078.3900000000001</v>
+        <v>1218.58</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3134,7 +3134,7 @@
         <v>103.89</v>
       </c>
       <c r="E125">
-        <v>799.18</v>
+        <v>903.07</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>84.85</v>
       </c>
       <c r="E126">
-        <v>652.67999999999995</v>
+        <v>737.53</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3168,7 +3168,7 @@
         <v>111.25</v>
       </c>
       <c r="E127">
-        <v>855.74</v>
+        <v>966.99</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3185,7 +3185,7 @@
         <v>79.040000000000006</v>
       </c>
       <c r="E128">
-        <v>607.97</v>
+        <v>687.01</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>924.01</v>
       </c>
       <c r="E129">
-        <v>7107.77</v>
+        <v>8031.78</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3219,7 +3219,7 @@
         <v>328.46</v>
       </c>
       <c r="E130">
-        <v>2526.64</v>
+        <v>2855.1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3236,7 +3236,7 @@
         <v>92.89</v>
       </c>
       <c r="E131">
-        <v>714.51</v>
+        <v>807.4</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>785.68</v>
       </c>
       <c r="E132">
-        <v>6043.69</v>
+        <v>6829.37</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3270,7 +3270,7 @@
         <v>126.56</v>
       </c>
       <c r="E133">
-        <v>973.56</v>
+        <v>1100.1199999999999</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3287,7 +3287,7 @@
         <v>22.88</v>
       </c>
       <c r="E134">
-        <v>176</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3304,7 +3304,7 @@
         <v>744.42</v>
       </c>
       <c r="E135">
-        <v>5726.32</v>
+        <v>6470.74</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
         <v>121.36</v>
       </c>
       <c r="E136">
-        <v>933.57</v>
+        <v>1054.93</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>224.37</v>
       </c>
       <c r="E137">
-        <v>1725.96</v>
+        <v>1950.33</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
         <v>79.06</v>
       </c>
       <c r="E138">
-        <v>608.17999999999995</v>
+        <v>687.24</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
         <v>825.12</v>
       </c>
       <c r="E139">
-        <v>6347.08</v>
+        <v>7172.2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>437.68</v>
       </c>
       <c r="E140">
-        <v>3366.76</v>
+        <v>3804.44</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>92.96</v>
       </c>
       <c r="E141">
-        <v>715.1</v>
+        <v>808.06</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>1087.3900000000001</v>
       </c>
       <c r="E142">
-        <v>8364.5300000000007</v>
+        <v>9451.92</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="E143">
-        <v>19.46</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>11.62</v>
       </c>
       <c r="E144">
-        <v>89.39</v>
+        <v>101.01</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3474,7 +3474,7 @@
         <v>28.43</v>
       </c>
       <c r="E145">
-        <v>218.7</v>
+        <v>247.13</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3491,7 +3491,7 @@
         <v>88.18</v>
       </c>
       <c r="E146">
-        <v>678.3</v>
+        <v>766.48</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3508,7 +3508,7 @@
         <v>539.09</v>
       </c>
       <c r="E147">
-        <v>4146.88</v>
+        <v>4685.97</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>98.92</v>
       </c>
       <c r="E148">
-        <v>760.9</v>
+        <v>859.82</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3542,7 +3542,7 @@
         <v>137.31</v>
       </c>
       <c r="E149">
-        <v>1056.24</v>
+        <v>1193.55</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3559,7 +3559,7 @@
         <v>9.08</v>
       </c>
       <c r="E150">
-        <v>69.87</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3576,7 +3576,7 @@
         <v>839.79</v>
       </c>
       <c r="E151">
-        <v>6459.89</v>
+        <v>7299.68</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
         <v>125.62</v>
       </c>
       <c r="E152">
-        <v>966.29</v>
+        <v>1091.9100000000001</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3610,7 +3610,7 @@
         <v>806.79</v>
       </c>
       <c r="E153">
-        <v>6206.07</v>
+        <v>7012.86</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>911.74</v>
       </c>
       <c r="E154">
-        <v>7013.42</v>
+        <v>7925.16</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
         <v>1218.0899999999999</v>
       </c>
       <c r="E155">
-        <v>9369.91</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>349.22</v>
       </c>
       <c r="E156">
-        <v>2686.28</v>
+        <v>3035.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3678,7 +3678,7 @@
         <v>976.44</v>
       </c>
       <c r="E157">
-        <v>7511.1</v>
+        <v>8487.5400000000009</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
         <v>738.94</v>
       </c>
       <c r="E158">
-        <v>5684.18</v>
+        <v>6423.12</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
         <v>163.69</v>
       </c>
       <c r="E159">
-        <v>1259.1600000000001</v>
+        <v>1422.85</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
         <v>480.13</v>
       </c>
       <c r="E160">
-        <v>3693.28</v>
+        <v>4173.41</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
         <v>24.73</v>
       </c>
       <c r="E161">
-        <v>190.21</v>
+        <v>214.94</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3763,7 +3763,7 @@
         <v>925.93</v>
       </c>
       <c r="E162">
-        <v>7122.57</v>
+        <v>8048.5</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>38.32</v>
       </c>
       <c r="E163">
-        <v>294.74</v>
+        <v>333.06</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3797,7 +3797,7 @@
         <v>376.1</v>
       </c>
       <c r="E164">
-        <v>2893.04</v>
+        <v>3269.14</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>898.75</v>
       </c>
       <c r="E165">
-        <v>6913.49</v>
+        <v>7812.24</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3831,7 +3831,7 @@
         <v>86.15</v>
       </c>
       <c r="E166">
-        <v>662.7</v>
+        <v>748.85</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3848,7 +3848,7 @@
         <v>81.92</v>
       </c>
       <c r="E167">
-        <v>630.19000000000005</v>
+        <v>712.11</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3865,7 +3865,7 @@
         <v>93.88</v>
       </c>
       <c r="E168">
-        <v>722.17</v>
+        <v>816.05</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3882,7 +3882,7 @@
         <v>8.07</v>
       </c>
       <c r="E169">
-        <v>62.08</v>
+        <v>70.150000000000006</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3899,7 +3899,7 @@
         <v>85.17</v>
       </c>
       <c r="E170">
-        <v>655.15</v>
+        <v>740.32</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3916,7 +3916,7 @@
         <v>969.06</v>
       </c>
       <c r="E171">
-        <v>7454.31</v>
+        <v>8423.3700000000008</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3933,7 +3933,7 @@
         <v>617.72</v>
       </c>
       <c r="E172">
-        <v>4751.67</v>
+        <v>5369.39</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>776.74</v>
       </c>
       <c r="E173">
-        <v>5974.92</v>
+        <v>6751.66</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3967,7 +3967,7 @@
         <v>898.86</v>
       </c>
       <c r="E174">
-        <v>6914.27</v>
+        <v>7813.13</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3984,7 +3984,7 @@
         <v>703.68</v>
       </c>
       <c r="E175">
-        <v>5412.93</v>
+        <v>6116.61</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>49.97</v>
       </c>
       <c r="E176">
-        <v>384.41</v>
+        <v>434.38</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4018,7 +4018,7 @@
         <v>62</v>
       </c>
       <c r="E177">
-        <v>476.96</v>
+        <v>538.96</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4035,7 +4035,7 @@
         <v>65.92</v>
       </c>
       <c r="E178">
-        <v>507.05</v>
+        <v>572.97</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4052,7 +4052,7 @@
         <v>1201.03</v>
       </c>
       <c r="E179">
-        <v>9238.7000000000007</v>
+        <v>10439.73</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>791.09</v>
       </c>
       <c r="E180">
-        <v>6085.32</v>
+        <v>6876.41</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>796.92</v>
       </c>
       <c r="E181">
-        <v>6130.18</v>
+        <v>6927.1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
         <v>886.07</v>
       </c>
       <c r="E182">
-        <v>6815.92</v>
+        <v>7701.99</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4120,7 +4120,7 @@
         <v>1186.8800000000001</v>
       </c>
       <c r="E183">
-        <v>9129.82</v>
+        <v>10316.700000000001</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4137,7 +4137,7 @@
         <v>809.12</v>
       </c>
       <c r="E184">
-        <v>6224.03</v>
+        <v>7033.15</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4154,7 +4154,7 @@
         <v>97.81</v>
       </c>
       <c r="E185">
-        <v>752.35</v>
+        <v>850.16</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4171,7 +4171,7 @@
         <v>25.04</v>
       </c>
       <c r="E186">
-        <v>192.65</v>
+        <v>217.69</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>1235.8</v>
       </c>
       <c r="E187">
-        <v>9506.16</v>
+        <v>10741.96</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4205,7 +4205,7 @@
         <v>47.43</v>
       </c>
       <c r="E188">
-        <v>364.83</v>
+        <v>412.26</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>20.14</v>
       </c>
       <c r="E189">
-        <v>154.96</v>
+        <v>175.1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
         <v>917.61</v>
       </c>
       <c r="E190">
-        <v>7058.57</v>
+        <v>7976.18</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4256,7 +4256,7 @@
         <v>1298.5899999999999</v>
       </c>
       <c r="E191">
-        <v>9989.17</v>
+        <v>11287.76</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4273,7 +4273,7 @@
         <v>136.07</v>
       </c>
       <c r="E192">
-        <v>1046.67</v>
+        <v>1182.74</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>109.82</v>
       </c>
       <c r="E193">
-        <v>844.77</v>
+        <v>954.59</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4307,7 +4307,7 @@
         <v>72.64</v>
       </c>
       <c r="E194">
-        <v>558.75</v>
+        <v>631.39</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4324,7 +4324,7 @@
         <v>22.96</v>
       </c>
       <c r="E195">
-        <v>176.63</v>
+        <v>199.59</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>116.95</v>
       </c>
       <c r="E196">
-        <v>899.65</v>
+        <v>1016.6</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4358,7 +4358,7 @@
         <v>26.53</v>
       </c>
       <c r="E197">
-        <v>204.1</v>
+        <v>230.63</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4375,7 +4375,7 @@
         <v>24.51</v>
       </c>
       <c r="E198">
-        <v>188.54</v>
+        <v>213.05</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4392,7 +4392,7 @@
         <v>50.66</v>
       </c>
       <c r="E199">
-        <v>389.73</v>
+        <v>440.39</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -4409,7 +4409,7 @@
         <v>809.85</v>
       </c>
       <c r="E200">
-        <v>6229.65</v>
+        <v>7039.5</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -4426,10 +4426,11 @@
         <v>539.42999999999995</v>
       </c>
       <c r="E201">
-        <v>4149.49</v>
+        <v>4688.92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>